--- a/data/income_statement/3digits/total/602_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/602_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>602-Television programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>602-Television programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1959851.27598</v>
@@ -959,34 +865,39 @@
         <v>2781943.89437</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3154468.45855</v>
+        <v>3154655.5652</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3998224.456230001</v>
+        <v>3999158.89009</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4223412.52138</v>
+        <v>4226402.38863</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4698912.28905</v>
+        <v>4701405.16648</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4029699.09367</v>
+        <v>5147406.63717</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5577647.60847</v>
+        <v>5577647.608469999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4830289.20871</v>
+        <v>4831304.44729</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5127363.927309999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5132025.223270001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6342656.5</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1810094.3554</v>
@@ -998,34 +909,39 @@
         <v>2574242.33951</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2892044.75907</v>
+        <v>2892152.20472</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3667922.69026</v>
+        <v>3668850.04274</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3847366.22631</v>
+        <v>3850303.84556</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4197824.50252</v>
+        <v>4200315.485359999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3774133.3394</v>
+        <v>4558474.32237</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4938128.92778</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4364575.435879999</v>
+        <v>4365590.67446</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4609367.14508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4614029.332810001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5725851.664</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>19364.7948</v>
@@ -1034,7 +950,7 @@
         <v>19523.66409</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>46077.26373</v>
+        <v>46077.26373000001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>83711.25155</v>
@@ -1049,7 +965,7 @@
         <v>167999.0794</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>226170.92639</v>
+        <v>263894.1712100001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>325122.65707</v>
@@ -1058,13 +974,18 @@
         <v>418149.8608</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>495032.83499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>495032.8349899999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>567434.738</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>130392.12578</v>
@@ -1076,19 +997,19 @@
         <v>161624.29113</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>178712.44793</v>
+        <v>178792.10893</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>199818.15818</v>
+        <v>199825.23956</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>267535.55147</v>
+        <v>267587.79947</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>333088.70713</v>
+        <v>333090.60172</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>29394.82788</v>
+        <v>325038.1435900001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>314396.02362</v>
@@ -1097,16 +1018,21 @@
         <v>47563.91203</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>22963.94724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22963.05547</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>49370.098</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>19175.83258999999</v>
+        <v>19175.83259</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>22576.46426</v>
@@ -1127,7 +1053,7 @@
         <v>186637.36022</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>150487.81664</v>
+        <v>159677.44535</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>182849.88175</v>
@@ -1136,13 +1062,18 @@
         <v>199075.49422</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>222976.08605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>223016.3244</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>294219.653</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>19046.51731</v>
@@ -1157,7 +1088,7 @@
         <v>17716.29944</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8855.087809999999</v>
+        <v>8855.087810000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>40890.55533</v>
@@ -1166,22 +1097,27 @@
         <v>95091.76172999998</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>37943.72861</v>
+        <v>47133.35732</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>57088.05923000001</v>
+        <v>57088.05922999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>63823.33875</v>
+        <v>63823.33875000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>65817.69183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>65857.93018</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>104280.731</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>59.7193</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>49817.01695</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>57425.355</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>69.59598</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4784.751270000001</v>
+        <v>4784.75127</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>4651.804810000001</v>
@@ -1235,7 +1176,7 @@
         <v>5288.5843</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>37784.41712000001</v>
+        <v>37784.41712</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>41498.21541</v>
@@ -1247,7 +1188,7 @@
         <v>77285.83676999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>89754.74644000002</v>
+        <v>89754.74644</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>91158.58042</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>107341.37727</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>132513.567</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1940675.44339</v>
@@ -1271,34 +1217,39 @@
         <v>2757529.53536</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3131184.33969</v>
+        <v>3131371.44634</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3911058.32661</v>
+        <v>3911992.760469999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4111384.48896</v>
+        <v>4114374.35621</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4512274.92883</v>
+        <v>4514767.80626</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3879211.27703</v>
+        <v>4987729.191819999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5394797.726720001</v>
+        <v>5394797.72672</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4631213.71449</v>
+        <v>4632228.95307</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4904387.841259999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4909008.898870001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6048436.847</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1649589.52721</v>
@@ -1310,19 +1261,19 @@
         <v>2197318.40586</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2584088.04878</v>
+        <v>2584109.20711</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3252899.66657</v>
+        <v>3253949.62175</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3675374.60072</v>
+        <v>3677647.23294</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4124488.93174</v>
+        <v>4131459.632849999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3151877.26092</v>
+        <v>4106648.13837</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4545979.78849</v>
@@ -1331,13 +1282,18 @@
         <v>4127399.17331</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4238230.25738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4241787.117</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4787332.493</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3216.53157</v>
@@ -1358,7 +1314,7 @@
         <v>100457.19809</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>29765.04398</v>
+        <v>29765.04397999999</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1165.1497</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>11708.65351</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>9056.522999999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>20957.11682</v>
@@ -1388,10 +1349,10 @@
         <v>34294.22342</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>37760.64778999999</v>
+        <v>37760.64779</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>43613.15994999999</v>
+        <v>43746.00059999999</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>63244.98632</v>
@@ -1400,7 +1361,7 @@
         <v>13797.83719</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7126.314609999999</v>
+        <v>8136.35902</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>108047.05719</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>133956.49864</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>137642.688</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1572727.77663</v>
@@ -1427,19 +1393,19 @@
         <v>2157278.29875</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2523298.42701</v>
+        <v>2523319.58534</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3178014.26477</v>
+        <v>3178931.3793</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3504694.46836</v>
+        <v>3506967.10058</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4070869.10513</v>
+        <v>4077839.80624</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3135987.242730001</v>
+        <v>4089748.07577</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4434520.72621</v>
@@ -1448,13 +1414,18 @@
         <v>3976878.87353</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4088346.45086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4091903.31048</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4626266.424</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>52688.10219</v>
@@ -1472,7 +1443,7 @@
         <v>14351.18984</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6977.947949999999</v>
+        <v>6977.94795</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>10056.94544</v>
@@ -1484,58 +1455,68 @@
         <v>2760.69731</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9413.287049999999</v>
+        <v>9413.287050000001</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>4218.65437</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>14366.858</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>291085.91618</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>550725.3843499999</v>
+        <v>550725.3843500001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>560211.1295</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>547096.29091</v>
+        <v>547262.2392300001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>658158.6600400001</v>
+        <v>658043.13872</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>436009.88824</v>
+        <v>436727.12327</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>387785.99709</v>
+        <v>383308.17341</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>727334.01611</v>
+        <v>881081.05345</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>848817.9382299999</v>
+        <v>848817.93823</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>503814.5411799999</v>
+        <v>504829.7797600001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>666157.58388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>667221.7818699998</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1261104.354</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>496192.59771</v>
+        <v>496192.5977099999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>584404.25827</v>
@@ -1544,34 +1525,39 @@
         <v>631851.15366</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>768701.93324</v>
+        <v>768802.62968</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>866856.0213199999</v>
+        <v>866878.4569899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>850103.6936799999</v>
+        <v>851485.1477099999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>861985.67533</v>
+        <v>862858.71407</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>865796.8653300001</v>
+        <v>943443.24486</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1024829.35723</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1036867.18298</v>
+        <v>1037898.83015</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1063793.78245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1066973.3869</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1202480.765</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>8.657369999999998</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>205377.15654</v>
@@ -1628,67 +1619,77 @@
         <v>362662.66867</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>368264.74776</v>
+        <v>369485.39761</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>374373.71401</v>
+        <v>375166.51417</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>383079.91389</v>
+        <v>417854.34791</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>452638.87655</v>
+        <v>452638.8765499999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>418022.5611400001</v>
+        <v>418022.56114</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>404844.72442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>405087.3444</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>548552.368</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>290806.7838</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>305175.8048400001</v>
+        <v>305175.80484</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>377822.96642</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>457244.8828500001</v>
+        <v>457345.57929</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>503808.4456800001</v>
+        <v>503830.88135</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>480746.31317</v>
+        <v>480907.11735</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>487346.35367</v>
+        <v>487426.59225</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>482202.98859</v>
+        <v>525074.9341000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>572140.02711</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>618744.2533999999</v>
+        <v>619775.9005699999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>658949.05803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>661886.0425</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>653928.397</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-205106.68153</v>
@@ -1700,34 +1701,39 @@
         <v>-71640.02416</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-221605.64233</v>
+        <v>-221540.39045</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-208697.36128</v>
+        <v>-208835.31827</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-414093.8054400001</v>
+        <v>-414758.02444</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-474199.67824</v>
+        <v>-479550.5406599999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-138462.84922</v>
+        <v>-62362.19141</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-176011.419</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-533052.6418</v>
+        <v>-533069.05039</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-397636.1985699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-399751.60503</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>58623.589</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>229461.97695</v>
@@ -1739,34 +1745,39 @@
         <v>155976.9217</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>116730.90276</v>
+        <v>116731.00892</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>145094.66505</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>145283.46341</v>
+        <v>145465.54794</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>339689.8294099999</v>
+        <v>339689.82942</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>491018.0205</v>
+        <v>508960.00278</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>488246.09322</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>882824.5890800001</v>
+        <v>882824.5890799999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1217247.0822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1217371.36642</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>810319.103</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>415.68222</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>296.49668</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1250</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12755.61824</v>
@@ -1868,7 +1889,7 @@
         <v>40367.66232</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>16788.10458</v>
+        <v>17063.5982</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>28629.13798</v>
@@ -1877,13 +1898,18 @@
         <v>92975.03271000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>127031.81556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>127157.60301</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>121383.656</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>414.01147</v>
@@ -1916,13 +1942,18 @@
         <v>9785.287769999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5946.58395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5946.583949999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7177.49</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2322.46059</v>
@@ -1943,10 +1974,10 @@
         <v>9803.121279999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7563.00104</v>
+        <v>7563.001040000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1119.07218</v>
+        <v>1172.48308</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3980.20638</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>32331.97601</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>21075.525</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>21.34435</v>
@@ -1982,7 +2018,7 @@
         <v>172.80495</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>486.19082</v>
+        <v>486.1908200000001</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>477.47695</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>3174.41189</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>181680.45</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>104277.93182</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>52011.92720000001</v>
+        <v>52011.9272</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>77659.64544999998</v>
+        <v>77659.64545</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>53657.73445</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>96806.24295000001</v>
+        <v>96806.24295</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>58826.62315</v>
+        <v>59008.70768</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>254358.501</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>365188.1739200001</v>
+        <v>377945.17075</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>392700.4052</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>657466.44209</v>
+        <v>657466.4420899999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>961490.0642799999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>961489.5770800001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>362263.408</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>54914.66623</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,23 +2164,28 @@
       <c r="M34" s="48" t="n">
         <v>10.12848</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>258.207</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>54340.26203</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>69906.82964999999</v>
+        <v>69906.82965</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>44357.00811</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>32241.85135</v>
+        <v>32241.95751</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>27685.2546</v>
@@ -2138,10 +2194,10 @@
         <v>27104.91934</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36800.14375</v>
+        <v>36800.14376000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>106958.9966</v>
+        <v>111815.07753</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>62028.28303</v>
@@ -2150,13 +2206,18 @@
         <v>102561.97401</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>85715.60535000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>85714.58932000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>114730.367</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>181540.60828</v>
@@ -2174,13 +2235,13 @@
         <v>287927.95566</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>195475.08839</v>
+        <v>195657.6696</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>531022.9344200001</v>
+        <v>531037.6383399999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>599566.18509</v>
+        <v>727343.07892</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>482516.14702</v>
@@ -2189,13 +2250,18 @@
         <v>926902.63831</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1105684.12122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1105683.66902</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>643593.514</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>17500.59974</v>
@@ -2210,7 +2276,7 @@
         <v>44974.27795</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>63338.27451999999</v>
+        <v>63338.27452000001</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>72963.50963999999</v>
@@ -2219,7 +2285,7 @@
         <v>96316.73686</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3499.68628</v>
+        <v>118680.37295</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>102019.78284</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>8347.91706</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>11659.925</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14771.29657</v>
@@ -2258,7 +2329,7 @@
         <v>9362.311609999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12678.55234</v>
+        <v>13943.53154</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>13095.08788</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>42548.58337000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>41349.245</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>6.65972</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>138855.71689</v>
@@ -2330,28 +2411,33 @@
         <v>209522.91556</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>107329.88754</v>
+        <v>107512.46875</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>421978.67061</v>
+        <v>421993.3705</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>489717.0344600001</v>
+        <v>501047.91249</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>365464.40465</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>858374.9259299999</v>
+        <v>858374.92593</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1051942.8985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1051942.4113</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>576107.851</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10412.99508</v>
@@ -2438,7 +2534,7 @@
         <v>16164.40519</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>21976.87605000001</v>
+        <v>21976.87605</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>21005.92319</v>
@@ -2450,10 +2546,10 @@
         <v>4299.80377</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3331.47926</v>
+        <v>3331.48329</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>93665.33658</v>
+        <v>93665.68651</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1936.72556</v>
@@ -2462,13 +2558,18 @@
         <v>8227.816849999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2838.062570000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2838.09757</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14462.963</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>70854.95284</v>
@@ -2486,28 +2587,33 @@
         <v>190111.73798</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>251248.6657</v>
+        <v>251271.74785</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>345135.92889</v>
+        <v>345141.04453</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>502218.13687</v>
+        <v>503074.95968</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>476323.1649500001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>884191.69108</v>
+        <v>884191.6910799999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>682491.51767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>682492.42253</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>251429.31</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>64842.60072</v>
@@ -2525,28 +2631,33 @@
         <v>152543.41028</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>223460.34561</v>
+        <v>223483.42776</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>331029.13867</v>
+        <v>331034.2543099999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>501992.37804</v>
+        <v>502849.20085</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>469217.7729</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>874045.27362</v>
+        <v>874045.2736200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>681357.9704000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>681358.87526</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>250745.216</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6012.35212</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1133.54727</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>684.0940000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-228040.2657</v>
@@ -2597,37 +2713,42 @@
         <v>-187356.59773</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-352651.44548</v>
+        <v>-352586.08744</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-541642.38987</v>
+        <v>-541780.34686</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-715534.09612</v>
+        <v>-716221.8939500001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1010668.71214</v>
+        <v>-1016039.39411</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-749229.15068</v>
+        <v>-783820.2272300001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-646604.63775</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1461322.38211</v>
+        <v>-1461338.7907</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-968564.75526</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-970556.3301600001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-26080.132</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>58482.81127000001</v>
+        <v>58482.81127</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>12542.21441</v>
@@ -2636,19 +2757,19 @@
         <v>24874.4541</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>17142.42972</v>
+        <v>17142.42984</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>38224.36125</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16240.95738</v>
+        <v>16244.43732</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>31113.39354</v>
+        <v>31113.39358</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>23386.18648</v>
+        <v>23621.88855</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>87176.58555999999</v>
@@ -2657,13 +2778,18 @@
         <v>34335.65736</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40012.07973999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>40407.77688</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>37688.889</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>484.85454</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1726.67105</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2077.746</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>57997.95673</v>
@@ -2714,34 +2845,39 @@
         <v>24235.20039</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>15458.2522</v>
+        <v>15458.25232</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>37823.20023</v>
+        <v>37823.20022999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16116.94917</v>
+        <v>16120.42911</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>30813.58064</v>
+        <v>30813.58068</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>23158.45742</v>
+        <v>23394.15949</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>84281.96705999998</v>
+        <v>84281.96706</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>33733.34758</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>38285.40869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>38681.10583</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>35611.143</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>69320.65481000001</v>
@@ -2753,34 +2889,39 @@
         <v>152854.60029</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>62678.66619</v>
+        <v>62678.67129999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>56023.6856</v>
+        <v>56075.05273</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>210889.89518</v>
+        <v>210969.0354</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>43126.91226</v>
+        <v>43416.44765</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>79497.71113</v>
+        <v>80901.74167</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>38438.45564</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>92236.30103999999</v>
+        <v>92236.30104000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>56272.89703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56403.94723999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>74913.455</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>55.06099</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>40.917</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6499.876179999999</v>
@@ -2843,7 +2989,7 @@
         <v>2219.5222</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1359.4481</v>
+        <v>1649.36198</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>967.42177</v>
@@ -2854,50 +3000,60 @@
       <c r="M53" s="48" t="n">
         <v>4753.17271</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>30325.113</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>62765.71764</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>80239.59152999999</v>
+        <v>80239.59153000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>149818.57824</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>59085.28910000001</v>
+        <v>59085.29420999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>53132.47596</v>
+        <v>53183.84308999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>207199.34058</v>
+        <v>207278.4808</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>40907.39006000001</v>
+        <v>41196.92545</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>78138.26303</v>
+        <v>79252.37969</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>37471.03387000001</v>
+        <v>37471.03387</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>82001.43622</v>
+        <v>82001.43622000002</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>51519.72432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>51650.77453</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>44547.425</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-238878.10924</v>
@@ -2909,34 +3065,39 @@
         <v>-315336.74392</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-398187.68195</v>
+        <v>-398122.3289</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-559441.7142200001</v>
+        <v>-559631.03834</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-910183.03392</v>
+        <v>-910946.49203</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1022682.23086</v>
+        <v>-1028342.44818</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-805340.67533</v>
+        <v>-841100.0803499999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-597866.50783</v>
+        <v>-597866.5078299999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1519223.02579</v>
+        <v>-1519239.43438</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-984825.57255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-986552.5005200001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-63304.698</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11813.18595</v>
@@ -2948,7 +3109,7 @@
         <v>46456.94098000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39908.36074</v>
+        <v>39922.04256</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>24257.04403</v>
@@ -2960,7 +3121,7 @@
         <v>8613.21025</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5753.71115</v>
+        <v>10782.56823</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>7414.98599</v>
@@ -2969,13 +3130,18 @@
         <v>12633.01494</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10601.15576</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10623.46674</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>37171.868</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-250691.29519</v>
@@ -2987,31 +3153,34 @@
         <v>-361793.6849</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-438096.04269</v>
+        <v>-438044.3714600001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-583698.75825</v>
+        <v>-583888.08237</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-922386.79738</v>
+        <v>-923150.25549</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1031295.44111</v>
+        <v>-1036955.65843</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-811094.38648</v>
+        <v>-851882.6485799999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-605281.4938200001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1531856.04073</v>
+        <v>-1531872.44932</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-995426.7283099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-997175.9672599999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-100476.566</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>633</v>
@@ -3041,31 +3213,34 @@
         <v>638</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>701</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>688</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>